--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1543949.267172934</v>
+        <v>1648128.901624006</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10423407.65680423</v>
+        <v>10423407.65680422</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3.182585533882541</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -713,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>287.7971664995883</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>234.6606904957407</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>60.31323908025411</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>208.7348846921221</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>42.24406744395651</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>17.1579442152432</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1110,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>193.60491983596</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>143.3574269446594</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>92.47445699814396</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1339,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>96.50675189249552</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>201.6936400577267</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977349</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>152.2372717916091</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>285.4827669718953</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2011,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756248</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>104.4262124629297</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756248</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>31.26260713376934</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>186.6664387710204</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>133.3722917337094</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>58.21786903648848</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>120.6889225686085</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>104.4262124629297</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
@@ -4337,19 +4339,19 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520488</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259408</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064753</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080133</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>382.1280466398576</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="C4" t="n">
-        <v>382.1280466398576</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>2807.058479692777</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>2552.373991486891</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310558</v>
+        <v>2262.95682144993</v>
       </c>
       <c r="X4" t="n">
-        <v>784.5690906136274</v>
+        <v>2034.967270551913</v>
       </c>
       <c r="Y4" t="n">
-        <v>563.7765114700973</v>
+        <v>1814.174691408383</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>2098.941407629261</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1729.978890688849</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1371.713192082098</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>985.9249394838541</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>574.9390346942466</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4583,10 +4585,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2713.136153598409</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2360.367498328294</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>1986.901740067214</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>1986.901740067214</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.169050396912</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271517</v>
+        <v>546.190314257152</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1792.126722677733</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1423.164205737321</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653544</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1792.126722677733</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.020896318616</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>608.0847133907091</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4957,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1829.812980520315</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1829.812980520315</v>
       </c>
       <c r="U10" t="n">
-        <v>1723.563598535233</v>
+        <v>1829.812980520315</v>
       </c>
       <c r="V10" t="n">
-        <v>1468.879110329347</v>
+        <v>1829.812980520315</v>
       </c>
       <c r="W10" t="n">
-        <v>1179.461940292386</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="X10" t="n">
-        <v>1179.461940292386</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y10" t="n">
-        <v>958.6693611488557</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096659</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2226.142357820936</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2226.142357820936</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.067131165134</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1682.382642959247</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1392.965472922287</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1164.975922024269</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5431,55 +5433,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>2091.550948547921</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5497,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5598,22 +5600,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3118.73869457197</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>2949.802511644064</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>2799.685872231728</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>2651.772778649335</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>2504.882831151424</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398593</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>4690.833152398593</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>4582.346174342407</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>4293.270947686605</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>4038.586459480718</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>3749.169289443757</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>3521.17973854574</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>3300.38715940221</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924459</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718572</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783594</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6206,49 +6208,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6318,13 +6320,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>3227.225672628157</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>3058.28948970025</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>2908.172850287915</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>2760.259756705521</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>2613.369809207611</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>2446.173709922491</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570821</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279806</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853365</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580264</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2415.384692536053</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>2415.384692536053</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T28" t="n">
-        <v>2415.384692536053</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="U28" t="n">
-        <v>2126.309465880251</v>
+        <v>4401.757925742791</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.624977674364</v>
+        <v>4147.073437536905</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>3857.656267499944</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>3629.666716601927</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>3408.874137458397</v>
       </c>
     </row>
     <row r="29">
@@ -6458,19 +6460,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6479,10 +6481,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6546,19 +6548,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452613</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355936</v>
@@ -6716,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.365421478097</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1902.290194822295</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.605706616408</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.188536579448</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,16 +6952,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>251.5626541092265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703141</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424072</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>376.4492432300715</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>228.5361496476784</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>228.5361496476784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>228.5361496476784</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.06254548757</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510511</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854709</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648822</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611862</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138443</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703141</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,22 +7162,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7190,34 +7192,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7263,16 +7265,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7494,22 +7496,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>641.8461362382112</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>472.9099533103043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2325.055080985707</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2105.453616008648</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1816.378389352846</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1561.693901146959</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1272.276731109998</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.287180211981</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>823.4946010684509</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,40 +7630,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>127.7255247667957</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>28.78901421003548</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23707,7 +23709,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0.7017074173488709</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23899,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516635</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>139.9994244361423</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>114.158440889165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>32.89260457059909</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.11263957635232</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>30.73901155626788</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>6.922421112514428</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>109.0289520621394</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>60.33736343303605</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>114.158440889165</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992041</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>897620.3630992041</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.150411784</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.150411784</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117844</v>
-      </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
         <v>524645.289798504</v>
@@ -26329,31 +26331,31 @@
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985042</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813248</v>
@@ -26430,13 +26432,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26445,19 +26447,19 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-992745.6589353341</v>
+        <v>-992745.6589353344</v>
       </c>
       <c r="C6" t="n">
-        <v>335999.0867922582</v>
+        <v>335999.0867922587</v>
       </c>
       <c r="D6" t="n">
-        <v>335999.0867922587</v>
+        <v>335999.0867922585</v>
       </c>
       <c r="E6" t="n">
-        <v>87553.20988046052</v>
+        <v>87553.20988045997</v>
       </c>
       <c r="F6" t="n">
+        <v>412965.6716878156</v>
+      </c>
+      <c r="G6" t="n">
+        <v>412965.671687816</v>
+      </c>
+      <c r="H6" t="n">
+        <v>412965.6716878155</v>
+      </c>
+      <c r="I6" t="n">
         <v>412965.6716878157</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>195434.4692905382</v>
+      </c>
+      <c r="K6" t="n">
         <v>412965.6716878157</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>412965.6716878157</v>
       </c>
-      <c r="I6" t="n">
-        <v>412965.6716878156</v>
-      </c>
-      <c r="J6" t="n">
-        <v>195434.469290538</v>
-      </c>
-      <c r="K6" t="n">
-        <v>412965.6716878156</v>
-      </c>
-      <c r="L6" t="n">
-        <v>412965.6716878155</v>
-      </c>
       <c r="M6" t="n">
-        <v>327910.6437523038</v>
+        <v>327910.6437523037</v>
       </c>
       <c r="N6" t="n">
-        <v>412965.6716878155</v>
+        <v>412965.6716878157</v>
       </c>
       <c r="O6" t="n">
-        <v>412965.6716878155</v>
+        <v>412965.6716878159</v>
       </c>
       <c r="P6" t="n">
         <v>412965.6716878156</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>379.551256129598</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>98.4407721564653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27588,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>51.5511477098722</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>165.396416308783</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>202.1868409613313</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>285.5081910261784</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>150.0888768833846</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>24.97973351613479</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>211.3256146760236</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>111.4435131414762</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>93.26227343894638</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>84.51819814788621</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29761,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>570.6116741576916</v>
+        <v>279.2419622547051</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>334.769386094615</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,10 +32320,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647493</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>164.9290651940687</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209194</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>268.1779244693588</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>164.9290651940687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34214,34 +34216,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>432.0572943778175</v>
+        <v>140.6875824748309</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>509.9138629937518</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802847</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35966,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.985332142731</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>22.33282074962425</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899105</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410452</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>130.3364854949998</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306628</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1648128.901624006</v>
+        <v>1644116.291610013</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.182585533882541</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>228.7010876911038</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>234.6606904957407</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>223.4096551115031</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>208.7348846921221</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.60491983596</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>92.47445699814396</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>46.42246812243229</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>96.50675189249552</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>139.7444550534595</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.70843787977349</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>20.431120686132</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>27.24739666248536</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>285.4827669718953</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>154.5058101250899</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>108.2950343703266</v>
+        <v>1.594095449514112</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>60.25690685266579</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756248</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>58.21786903648848</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>91.40260836685067</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.74007641194018</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>1848.950422814786</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1848.950422814786</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>2235.550262878908</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064755</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080134</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1632.526226578143</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>1632.526226578143</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>1632.526226578143</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>1632.526226578143</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1632.526226578143</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952862</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952862</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193526</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3044.089480193526</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>2807.058479692777</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>2552.373991486891</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>2262.95682144993</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>2034.967270551913</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1814.174691408383</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2098.941407629261</v>
+        <v>2185.045504370168</v>
       </c>
       <c r="C5" t="n">
-        <v>1729.978890688849</v>
+        <v>1816.082987429756</v>
       </c>
       <c r="D5" t="n">
-        <v>1371.713192082098</v>
+        <v>1457.817288823006</v>
       </c>
       <c r="E5" t="n">
-        <v>985.9249394838541</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>574.9390346942466</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>2571.64534443429</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>364.5418494269123</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269123</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>969.7403902419976</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>741.7508393439803</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>546.190314257152</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3121.906610713899</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3121.906610713899</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3121.906610713899</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1829.812980520315</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1829.812980520315</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1829.812980520315</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1829.812980520315</v>
+        <v>1696.308075640506</v>
       </c>
       <c r="W10" t="n">
-        <v>1540.395810483355</v>
+        <v>1406.890905603545</v>
       </c>
       <c r="X10" t="n">
-        <v>1312.406259585337</v>
+        <v>1178.901354705528</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>958.1087755619981</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192605</v>
@@ -5044,13 +5044,13 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,22 +5059,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969299</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998295</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>196.5408620426159</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5275,10 +5275,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5287,40 +5287,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468473</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>2091.550948547921</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.866460342034</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407056</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263526</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="17">
@@ -5506,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5524,10 +5524,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.390058741045</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,28 +5831,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D22" t="n">
-        <v>235.5284942057738</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5949,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3227.225672628157</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>3058.28948970025</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
-        <v>2908.172850287915</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E28" t="n">
-        <v>2760.259756705521</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F28" t="n">
-        <v>2613.369809207611</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G28" t="n">
-        <v>2446.173709922491</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4401.757925742791</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4147.073437536905</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>3857.656267499944</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>3629.666716601927</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>3408.874137458397</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6457,25 +6457,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="32">
@@ -6685,52 +6685,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9025067654818</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,22 +7730,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667957</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>119.8635921600919</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.9994244361425</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0.7017074173488709</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>62.89964020219841</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>40.32043864788574</v>
+        <v>147.0213775686983</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="H28" t="n">
-        <v>32.89260457059909</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>109.0289520621394</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>75.84421273177716</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897620.3630992041</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117843</v>
-      </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="I2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="J2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="I2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="L2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
@@ -26352,10 +26352,10 @@
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813243</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26447,13 +26447,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-992745.6589353344</v>
+        <v>-992745.6589353341</v>
       </c>
       <c r="C6" t="n">
-        <v>335999.0867922587</v>
+        <v>335999.0867922588</v>
       </c>
       <c r="D6" t="n">
-        <v>335999.0867922585</v>
+        <v>335999.0867922584</v>
       </c>
       <c r="E6" t="n">
-        <v>87553.20988045997</v>
+        <v>87205.83062610312</v>
       </c>
       <c r="F6" t="n">
-        <v>412965.6716878156</v>
+        <v>412618.2924334586</v>
       </c>
       <c r="G6" t="n">
-        <v>412965.671687816</v>
+        <v>412618.2924334589</v>
       </c>
       <c r="H6" t="n">
-        <v>412965.6716878155</v>
+        <v>412618.2924334588</v>
       </c>
       <c r="I6" t="n">
-        <v>412965.6716878157</v>
+        <v>412618.2924334587</v>
       </c>
       <c r="J6" t="n">
-        <v>195434.4692905382</v>
+        <v>195087.0900361812</v>
       </c>
       <c r="K6" t="n">
-        <v>412965.6716878157</v>
+        <v>412618.2924334586</v>
       </c>
       <c r="L6" t="n">
-        <v>412965.6716878157</v>
+        <v>412618.2924334586</v>
       </c>
       <c r="M6" t="n">
-        <v>327910.6437523037</v>
+        <v>327563.2644979468</v>
       </c>
       <c r="N6" t="n">
-        <v>412965.6716878157</v>
+        <v>412618.2924334587</v>
       </c>
       <c r="O6" t="n">
-        <v>412965.6716878159</v>
+        <v>412618.2924334587</v>
       </c>
       <c r="P6" t="n">
-        <v>412965.6716878156</v>
+        <v>412618.2924334586</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26801,7 +26801,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379.551256129598</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>125.9819539295791</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>51.5511477098722</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>158.5207149607587</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>202.1868409613313</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>24.97973351613479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>111.4435131414762</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>323.3086325560367</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>93.26227343894638</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>112.3931882703685</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,31 +31843,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>279.2419622547051</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>334.769386094615</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32551,7 +32551,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>512.9101366533182</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>268.1779244693588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34450,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>140.6875824748309</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802847</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36199,7 +36199,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>370.3138922088737</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>130.3364854949998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1644116.291610013</v>
+        <v>1645876.821912798</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>94.8127598026135</v>
       </c>
       <c r="D2" t="n">
-        <v>228.7010876911038</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>115.941871238413</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>196.1623266599242</v>
       </c>
       <c r="E5" t="n">
-        <v>223.4096551115031</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347168</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>313.0738748972979</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1189,16 +1189,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>46.42246812243229</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>98.12640288586319</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>139.7444550534595</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>47.88058113793241</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>20.431120686132</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>27.24739666248536</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>31.24750433886444</v>
       </c>
     </row>
     <row r="17">
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2055,16 +2055,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>154.5058101250899</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>1.594095449514112</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>35.41770597126712</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>60.25690685266579</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>80.33989744908955</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>53.30076123484924</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>12.74007641194068</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>41.33703994142957</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>91.40260836685067</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>100.5858322992708</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.74007641194018</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1848.950422814786</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="C2" t="n">
-        <v>1848.950422814786</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139988</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2235.550262878908</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>2235.550262878908</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064755</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4549,7 +4549,7 @@
         <v>1816.082987429756</v>
       </c>
       <c r="D5" t="n">
-        <v>1457.817288823006</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4567,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4579,7 +4579,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4640,7 +4640,7 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4725,16 +4725,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,19 +4746,19 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
         <v>1767.918581386758</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1137.401303008949</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1137.401303008949</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1137.401303008949</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.852659508903</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>776.4603107317583</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>313.5427886871656</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>165.6296951047725</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1696.308075640506</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.890905603545</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1178.901354705528</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>958.1087755619981</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277359</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E13" t="n">
-        <v>363.7369613277359</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>363.7369613277359</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>196.5408620426159</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,43 +5260,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171305</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473703</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="17">
@@ -5506,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908939</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2040.996070613739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1496.894412370891</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>129.5921236250094</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="26">
@@ -6223,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>301.5721730233224</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>154.6822255254121</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6688,34 +6688,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>642.8692823226939</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2326.078227070189</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>824.5177471529337</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>248.3972582582391</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>106.6854271004372</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424041</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>641.1291986799072</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675714</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
         <v>343.0994656851783</v>
@@ -7560,61 +7560,61 @@
         <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>415.5933575433587</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>98.55338150863676</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>119.8635921600919</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>139.9994244361425</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>187.3371490132303</v>
       </c>
     </row>
     <row r="17">
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23943,16 +23943,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>62.89964020219841</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>147.0213775686983</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8770068749567</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>105.2672314396031</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>127.7255247667954</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>68.52575990662484</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>107.2784330767828</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>75.84421273177716</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>45.84813034729837</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>132.6809716109911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="14">
@@ -26316,13 +26316,13 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
@@ -26331,28 +26331,28 @@
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="J2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="J2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="L2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985036</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
         <v>524645.2897985039</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813258</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813243</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-992745.6589353341</v>
+        <v>-992745.6589353337</v>
       </c>
       <c r="C6" t="n">
-        <v>335999.0867922588</v>
+        <v>335999.0867922584</v>
       </c>
       <c r="D6" t="n">
-        <v>335999.0867922584</v>
+        <v>335999.0867922587</v>
       </c>
       <c r="E6" t="n">
-        <v>87205.83062610312</v>
+        <v>87518.4719550248</v>
       </c>
       <c r="F6" t="n">
-        <v>412618.2924334586</v>
+        <v>412930.9337623798</v>
       </c>
       <c r="G6" t="n">
-        <v>412618.2924334589</v>
+        <v>412930.9337623799</v>
       </c>
       <c r="H6" t="n">
-        <v>412618.2924334588</v>
+        <v>412930.9337623797</v>
       </c>
       <c r="I6" t="n">
-        <v>412618.2924334587</v>
+        <v>412930.9337623797</v>
       </c>
       <c r="J6" t="n">
-        <v>195087.0900361812</v>
+        <v>195399.7313651023</v>
       </c>
       <c r="K6" t="n">
-        <v>412618.2924334586</v>
+        <v>412930.9337623799</v>
       </c>
       <c r="L6" t="n">
-        <v>412618.2924334586</v>
+        <v>412930.9337623796</v>
       </c>
       <c r="M6" t="n">
-        <v>327563.2644979468</v>
+        <v>327875.9058268681</v>
       </c>
       <c r="N6" t="n">
-        <v>412618.2924334587</v>
+        <v>412930.9337623797</v>
       </c>
       <c r="O6" t="n">
-        <v>412618.2924334587</v>
+        <v>412930.9337623798</v>
       </c>
       <c r="P6" t="n">
-        <v>412618.2924334586</v>
+        <v>412930.9337623798</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26962,22 +26962,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>270.4601319683941</v>
       </c>
       <c r="D2" t="n">
-        <v>125.9819539295791</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>170.2699669671998</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>158.5207149607588</v>
       </c>
       <c r="E5" t="n">
-        <v>158.5207149607587</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.35543628911122</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>93.80217084441352</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>323.3086325560367</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>47.29464513706806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>112.3931882703685</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>400.5469039565762</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>257.9506595121318</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
